--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Csf2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Csf2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Csf2</t>
   </si>
   <si>
@@ -89,12 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,10 +543,10 @@
         <v>0.690236</v>
       </c>
       <c r="I2">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J2">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9991829999999999</v>
+        <v>4.020434</v>
       </c>
       <c r="N2">
-        <v>1.998366</v>
+        <v>8.040868</v>
       </c>
       <c r="O2">
-        <v>0.01488714493203248</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P2">
-        <v>0.01137801272088475</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q2">
-        <v>0.229890692396</v>
+        <v>0.9250160941413332</v>
       </c>
       <c r="R2">
-        <v>1.379344154376</v>
+        <v>5.550096564847999</v>
       </c>
       <c r="S2">
-        <v>0.007378347195241367</v>
+        <v>0.01372012161875719</v>
       </c>
       <c r="T2">
-        <v>0.006778866984264191</v>
+        <v>0.011241275153266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +605,10 @@
         <v>0.690236</v>
       </c>
       <c r="I3">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J3">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +623,10 @@
         <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5894957947979553</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P3">
-        <v>0.6758136650185235</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q3">
         <v>9.103128709322666</v>
@@ -638,10 +635,10 @@
         <v>81.92815838390399</v>
       </c>
       <c r="S3">
-        <v>0.2921651306554624</v>
+        <v>0.1350203891523041</v>
       </c>
       <c r="T3">
-        <v>0.4026406942663719</v>
+        <v>0.1659389094285144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,72 +667,72 @@
         <v>0.690236</v>
       </c>
       <c r="I4">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J4">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06171066666666666</v>
+        <v>19.035871</v>
       </c>
       <c r="N4">
-        <v>0.185132</v>
+        <v>38.071742</v>
       </c>
       <c r="O4">
-        <v>0.0009194468265763251</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P4">
-        <v>0.001054078307498645</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q4">
-        <v>0.01419830790577778</v>
+        <v>4.379747818518666</v>
       </c>
       <c r="R4">
-        <v>0.127784771152</v>
+        <v>26.278486911112</v>
       </c>
       <c r="S4">
-        <v>0.0004556950271536594</v>
+        <v>0.06496175916305881</v>
       </c>
       <c r="T4">
-        <v>0.0006280056819075176</v>
+        <v>0.05322496618352068</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2300786666666667</v>
+        <v>0.2341465</v>
       </c>
       <c r="H5">
-        <v>0.690236</v>
+        <v>0.468293</v>
       </c>
       <c r="I5">
-        <v>0.4956186850418492</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J5">
-        <v>0.5957865534656448</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,60 +741,60 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7183095</v>
+        <v>4.020434</v>
       </c>
       <c r="N5">
-        <v>49.436619</v>
+        <v>8.040868</v>
       </c>
       <c r="O5">
-        <v>0.3682859456189059</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P5">
-        <v>0.2814752051723923</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q5">
-        <v>5.687155692014</v>
+        <v>0.941370549581</v>
       </c>
       <c r="R5">
-        <v>34.122934152084</v>
+        <v>3.765482198324</v>
       </c>
       <c r="S5">
-        <v>0.1825293960870361</v>
+        <v>0.01396269590374741</v>
       </c>
       <c r="T5">
-        <v>0.1676991423756949</v>
+        <v>0.007626681983188929</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2300786666666667</v>
+        <v>0.2341465</v>
       </c>
       <c r="H6">
-        <v>0.690236</v>
+        <v>0.468293</v>
       </c>
       <c r="I6">
-        <v>0.4956186850418492</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J6">
-        <v>0.5957865534656448</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.772676333333333</v>
+        <v>39.565288</v>
       </c>
       <c r="N6">
-        <v>5.318029</v>
+        <v>118.695864</v>
       </c>
       <c r="O6">
-        <v>0.02641166782452989</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P6">
-        <v>0.03027903878070085</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q6">
-        <v>0.4078550072048889</v>
+        <v>9.264073706692001</v>
       </c>
       <c r="R6">
-        <v>3.670695064844</v>
+        <v>55.584442240152</v>
       </c>
       <c r="S6">
-        <v>0.01309011607695562</v>
+        <v>0.1374075745773184</v>
       </c>
       <c r="T6">
-        <v>0.01803984415740636</v>
+        <v>0.1125818266694396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -856,10 +853,10 @@
         <v>0.468293</v>
       </c>
       <c r="I7">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J7">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,184 +865,184 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9991829999999999</v>
+        <v>19.035871</v>
       </c>
       <c r="N7">
-        <v>1.998366</v>
+        <v>38.071742</v>
       </c>
       <c r="O7">
-        <v>0.01488714493203248</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P7">
-        <v>0.01137801272088475</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q7">
-        <v>0.2339552023095</v>
+        <v>4.457182569101501</v>
       </c>
       <c r="R7">
-        <v>0.9358208092379999</v>
+        <v>17.828730276406</v>
       </c>
       <c r="S7">
-        <v>0.007508797736791109</v>
+        <v>0.06611029506664308</v>
       </c>
       <c r="T7">
-        <v>0.004599145736620563</v>
+        <v>0.03611066227924862</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2341465</v>
+        <v>0.6124066666666667</v>
       </c>
       <c r="H8">
-        <v>0.468293</v>
+        <v>1.83722</v>
       </c>
       <c r="I8">
-        <v>0.5043813149581506</v>
+        <v>0.5688171645181709</v>
       </c>
       <c r="J8">
-        <v>0.4042134465343553</v>
+        <v>0.6132756783028217</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.565288</v>
+        <v>4.020434</v>
       </c>
       <c r="N8">
-        <v>118.695864</v>
+        <v>8.040868</v>
       </c>
       <c r="O8">
-        <v>0.5894957947979553</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P8">
-        <v>0.6758136650185235</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q8">
-        <v>9.264073706692001</v>
+        <v>2.462140584493333</v>
       </c>
       <c r="R8">
-        <v>55.584442240152</v>
+        <v>14.77284350696</v>
       </c>
       <c r="S8">
-        <v>0.2973306641424929</v>
+        <v>0.03651922217967926</v>
       </c>
       <c r="T8">
-        <v>0.2731729707521516</v>
+        <v>0.02992120888664653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2341465</v>
+        <v>0.6124066666666667</v>
       </c>
       <c r="H9">
-        <v>0.468293</v>
+        <v>1.83722</v>
       </c>
       <c r="I9">
-        <v>0.5043813149581506</v>
+        <v>0.5688171645181709</v>
       </c>
       <c r="J9">
-        <v>0.4042134465343553</v>
+        <v>0.6132756783028217</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06171066666666666</v>
+        <v>39.565288</v>
       </c>
       <c r="N9">
-        <v>0.185132</v>
+        <v>118.695864</v>
       </c>
       <c r="O9">
-        <v>0.0009194468265763251</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P9">
-        <v>0.001054078307498645</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q9">
-        <v>0.01444933661266667</v>
+        <v>24.23004613978667</v>
       </c>
       <c r="R9">
-        <v>0.08669601967600001</v>
+        <v>218.07041525808</v>
       </c>
       <c r="S9">
-        <v>0.0004637517994226655</v>
+        <v>0.3593874549551113</v>
       </c>
       <c r="T9">
-        <v>0.000426072625591127</v>
+        <v>0.4416841242419335</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2341465</v>
+        <v>0.6124066666666667</v>
       </c>
       <c r="H10">
-        <v>0.468293</v>
+        <v>1.83722</v>
       </c>
       <c r="I10">
-        <v>0.5043813149581506</v>
+        <v>0.5688171645181709</v>
       </c>
       <c r="J10">
-        <v>0.4042134465343553</v>
+        <v>0.6132756783028217</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,90 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.7183095</v>
+        <v>19.035871</v>
       </c>
       <c r="N10">
-        <v>49.436619</v>
+        <v>38.071742</v>
       </c>
       <c r="O10">
-        <v>0.3682859456189059</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P10">
-        <v>0.2814752051723923</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q10">
-        <v>5.787705655341751</v>
+        <v>11.65769430620667</v>
       </c>
       <c r="R10">
-        <v>23.150822621367</v>
+        <v>69.94616583723999</v>
       </c>
       <c r="S10">
-        <v>0.1857565495318697</v>
+        <v>0.1729104873833803</v>
       </c>
       <c r="T10">
-        <v>0.1137760627966975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.2341465</v>
-      </c>
-      <c r="H11">
-        <v>0.468293</v>
-      </c>
-      <c r="I11">
-        <v>0.5043813149581506</v>
-      </c>
-      <c r="J11">
-        <v>0.4042134465343553</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N11">
-        <v>5.318029</v>
-      </c>
-      <c r="O11">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P11">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q11">
-        <v>0.4150659590828333</v>
-      </c>
-      <c r="R11">
-        <v>2.490395754497</v>
-      </c>
-      <c r="S11">
-        <v>0.01332155174757426</v>
-      </c>
-      <c r="T11">
-        <v>0.01223919462329449</v>
+        <v>0.1416703451742416</v>
       </c>
     </row>
   </sheetData>
